--- a/data.xlsx
+++ b/data.xlsx
@@ -652,7 +652,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Каменская Адриана Алексеевна -7873861275292629883</t>
+          <t>Каменская Адриана Алексеевна -789573437151185070</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -722,7 +722,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Андреева Лия Александровна -1496006370221419415</t>
+          <t>Андреева Лия Александровна 3653071793729781780</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -792,7 +792,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Андреева Лия Александровна -8247373442432163928</t>
+          <t>Андреева Лия Александровна -7931126095159693786</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -862,7 +862,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Андреева Лия Александровна -3648011169192338020</t>
+          <t>Андреева Лия Александровна -3668608408331498151</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -932,7 +932,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Сеппи Евгения Ильинична -5937297190363927007</t>
+          <t>Сеппи Евгения Ильинична -2247462197886660824</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Конкина Ирина Анатольевна 8909712100771486446</t>
+          <t>Конкина Ирина Анатольевна -7309311379644267830</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1072,7 +1072,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Нетаев Адам Ахмедович 5428036235551183848</t>
+          <t>Нетаев Адам Ахмедович 7246188366953737131</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Собянина Анна Сергеевна 7795289993687916902</t>
+          <t>Собянина Анна Сергеевна -3892089417314761187</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Руденко Константин Герольдович -2880778004032849806</t>
+          <t>Руденко Константин Герольдович -4112792747408412742</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Хапсироков Али Муратович 7020829569183726242</t>
+          <t>Хапсироков Али Муратович -6622219684157329555</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1352,7 +1352,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Федярова Софья Алексеевна -1380210153890363242</t>
+          <t>Федярова Софья Алексеевна -6351516106849147266</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1422,7 +1422,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Комлева(Краснова) Анна Николаевна 3725312150734488843</t>
+          <t>Комлева(Краснова) Анна Николаевна -5581486582906596319</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1492,7 +1492,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Акульчев Сергей Николаевич 745755538877333929</t>
+          <t>Акульчев Сергей Николаевич 8156072508509072590</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1562,7 +1562,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Кравцов Василий Юрьевич 2428332557385499951</t>
+          <t>Кравцов Василий Юрьевич -3879897310157634653</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1632,7 +1632,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Кравцов Василий Юрьевич -6481973451535100606</t>
+          <t>Кравцов Василий Юрьевич -9013669621327178049</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1702,7 +1702,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Кравцов Василий Юрьевич -1433142364712889384</t>
+          <t>Кравцов Василий Юрьевич 7614650260181946026</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1772,7 +1772,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Менчук Георгий Александрович 2832346527954352177</t>
+          <t>Менчук Георгий Александрович -2734415106334238209</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1842,7 +1842,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Землянский Александр Витальевич 7355142566560641765</t>
+          <t>Землянский Александр Витальевич -6674594551496312866</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Хапсироков Идар Муратович -1002670672534449695</t>
+          <t>Хапсироков Идар Муратович -4757920866560494153</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1982,7 +1982,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Акульчев Сергей Николаевич 199046725136308735</t>
+          <t>Акульчев Сергей Николаевич -3665484848157031153</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2052,7 +2052,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Боровян Наталья Геннадьевна -3094299778934054621</t>
+          <t>Боровян Наталья Геннадьевна 8378866715005636172</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2122,7 +2122,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Буре Алина Фанисовна 1851440649151076260</t>
+          <t>Буре Алина Фанисовна 5541691739814813667</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2192,7 +2192,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Буре Алина Фанисовна -7058865359769524297</t>
+          <t>Буре Алина Фанисовна -3990437954339097857</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2262,7 +2262,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Крайнова Татьяна Олеговна 7284145514529862193</t>
+          <t>Крайнова Татьяна Олеговна -8672687315040982999</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2332,7 +2332,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Маневская Малена Павловна -7650778810813326414</t>
+          <t>Маневская Малена Павловна -6011939313684510643</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2402,7 +2402,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Нетаев Адам Ахмедович 969012795043276939</t>
+          <t>Нетаев Адам Ахмедович 1733762061311334768</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2472,7 +2472,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Мельникова Ева Владиславовна -2841108168777525948</t>
+          <t>Мельникова Ева Владиславовна -858368002333947048</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2542,7 +2542,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Бельман Нелли Андреевна 2624636173620350078</t>
+          <t>Бельман Нелли Андреевна -2113625965022091369</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2612,7 +2612,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Глебов Владимир Владимирович -1365149167139546215</t>
+          <t>Глебов Владимир Владимирович -8840351535529685581</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2682,7 +2682,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Сеппи Евгения Ильинична 1306220222679696149</t>
+          <t>Сеппи Евгения Ильинична -7195999199954963830</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2752,7 +2752,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Хапсирокова Зара Умаровна -3050768736303189800</t>
+          <t>Хапсирокова Зара Умаровна 5267073599539455912</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2822,7 +2822,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Федяров Алексей Владимирович 3456886904069866608</t>
+          <t>Федяров Алексей Владимирович 1283320284997289847</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2892,7 +2892,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Каменская Адриана Алексеевна 1600213006356600124</t>
+          <t>Каменская Адриана Алексеевна -6206220743271554189</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2962,7 +2962,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Каменская Адриана Алексеевна -9188273516419001293</t>
+          <t>Каменская Адриана Алексеевна -2216496764478975280</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -3032,7 +3032,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Каменская Адриана Алексеевна -184533924967135550</t>
+          <t>Каменская Адриана Алексеевна -3490917738960457489</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -3102,7 +3102,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Каменская Адриана Алексеевна 8725772083953465007</t>
+          <t>Каменская Адриана Алексеевна -5359502829881240756</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -3172,7 +3172,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Каменская Адриана Алексеевна -1887069910355668841</t>
+          <t>Каменская Адриана Алексеевна 1553204253659191020</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -3242,7 +3242,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Каменская Адриана Алексеевна 4864297161855075672</t>
+          <t>Каменская Адриана Алексеевна 1736687357473971795</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -3312,7 +3312,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Кравцов Василий Юрьевич 2463360817716512605</t>
+          <t>Кравцов Василий Юрьевич 3695721851982409559</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -3382,7 +3382,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Левко Зарина Маратовна -5966944903741012368</t>
+          <t>Левко Зарина Маратовна -6126018031064212558</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -3598,7 +3598,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Руденко Константин Герольдович -3993926617037403265</t>
+          <t>Руденко Константин Герольдович -1683193081876280102</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -3668,7 +3668,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Руденко Константин Герольдович -7086667538777693638</t>
+          <t>Руденко Константин Герольдович 6461011509880702241</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -3738,7 +3738,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Медведев Михаил Яковлевич 6645648840462913258</t>
+          <t>Медведев Михаил Яковлевич 1211352620639188060</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -3808,7 +3808,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Шишулин Руслан Борисович 5106481871119619449</t>
+          <t>Шишулин Руслан Борисович 8511345527352487053</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -3878,7 +3878,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Шишулин Руслан Борисович 6868769754166613287</t>
+          <t>Шишулин Руслан Борисович -1340712226953739144</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -3948,7 +3948,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Шишулин Руслан Борисович 2013740949379329076</t>
+          <t>Шишулин Руслан Борисович -1791193954600082220</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -4018,7 +4018,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Сбытов Роман Сергеевич -3919724631745047346</t>
+          <t>Сбытов Роман Сергеевич 9192711347471938494</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -4088,7 +4088,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Хазов Денис Валерьевич 7794375376088709633</t>
+          <t>Хазов Денис Валерьевич -9187340726288848539</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -4158,7 +4158,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Снигирь Юлия Викторовна -8332015652200720824</t>
+          <t>Снигирь Юлия Викторовна -3591618379715589738</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -4228,7 +4228,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Бельман Нелли Андреевна 1899012011003272969</t>
+          <t>Бельман Нелли Андреевна 8193473591747286880</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -4298,7 +4298,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Мисакян Гарник Размикович 3646741717364248869</t>
+          <t>Мисакян Гарник Размикович -6567276275916906707</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -4368,7 +4368,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Федярова Варвара Алексеевна -9189128674961848194</t>
+          <t>Федярова Варвара Алексеевна -6299306249331825512</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -4438,7 +4438,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Федярова Варвара Алексеевна 4190817465366444314</t>
+          <t>Федярова Варвара Алексеевна -2761340779309698019</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -4508,7 +4508,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Федярова Варвара Алексеевна 4190817465366444314</t>
+          <t>Федярова Варвара Алексеевна -2761340779309698019</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -4578,7 +4578,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Федярова Варвара Алексеевна 4190817465366444314</t>
+          <t>Федярова Варвара Алексеевна -2761340779309698019</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Маркин Валерий Викторович -6349203780891333860</t>
+          <t>Маркин Валерий Викторович 7877650303312038284</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -4718,7 +4718,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Рыжов Алексей Николаевич -8520900461291866077</t>
+          <t>Рыжов Алексей Николаевич 8285620377355848906</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -4788,7 +4788,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Васильева Мария Андреевна 1776441957321413762</t>
+          <t>Васильева Мария Андреевна -389508389973525269</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -4858,7 +4858,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Васильева Мария Андреевна -7363008808311708304</t>
+          <t>Васильева Мария Андреевна 8518943948564487878</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -4928,7 +4928,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Васильева Мария Андреевна 1776441957321413762</t>
+          <t>Васильева Мария Андреевна -389508389973525269</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -4998,7 +4998,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Васильева Мария Андреевна -7363008808311708304</t>
+          <t>Васильева Мария Андреевна 8518943948564487878</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -5068,7 +5068,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Шишулин Руслан Борисович 8030991811254876151</t>
+          <t>Шишулин Руслан Борисович 3053289505015668460</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -5138,7 +5138,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Шишулин Руслан Борисович 8030991811254876151</t>
+          <t>Шишулин Руслан Борисович 3053289505015668460</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -5208,7 +5208,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Шишулин Руслан Борисович 4938250889514585778</t>
+          <t>Шишулин Руслан Борисович -7249249976936900813</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -5278,7 +5278,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Мокан Елена Ивановна 1086909662999600123</t>
+          <t>Мокан Елена Ивановна 7025097883002452404</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -5348,7 +5348,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Мокан Елена Ивановна -7813575683210690286</t>
+          <t>Мокан Елена Ивановна -6564583191617229857</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -5418,7 +5418,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Рыжов Алексей Николаевич 6399688159267856534</t>
+          <t>Рыжов Алексей Николаевич -740798526290762793</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -5488,7 +5488,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Вялков Сергей Леонидович -3348844974601020173</t>
+          <t>Вялков Сергей Леонидович 4905095979571659880</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -5558,7 +5558,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Руденко Константин Герольдович 4812705986780529655</t>
+          <t>Руденко Константин Герольдович -5704959164178435309</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -5628,7 +5628,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Руденко Константин Герольдович 1719965065040239282</t>
+          <t>Руденко Константин Герольдович -8961469357496147757</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -5698,7 +5698,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Каменская Анастасия Александровна -6818559766982260632</t>
+          <t>Каменская Анастасия Александровна -2007041301925048937</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -5768,7 +5768,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Рыжов Алексей Николаевич -9168798695722284765</t>
+          <t>Рыжов Алексей Николаевич -5784086430964429876</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -5838,7 +5838,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Козырев Пётр Ильич 5718655988726160790</t>
+          <t>Козырев Пётр Ильич 6216796234337818895</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -5908,7 +5908,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Козырев Пётр Ильич 2625915066985870417</t>
+          <t>Козырев Пётр Ильич -8484100630599118506</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -5978,7 +5978,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Козырев Пётр Ильич 5718655988726160790</t>
+          <t>Козырев Пётр Ильич 6216796234337818895</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -6048,7 +6048,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Козырев Пётр Ильич 2625915066985870417</t>
+          <t>Козырев Пётр Ильич -8484100630599118506</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -6264,7 +6264,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Москвичева Анастасия Александровна -6796115304750268173</t>
+          <t>Москвичева Анастасия Александровна 1417676586339777179</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -6334,7 +6334,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Мельникова Татьяна Владимировна -2297832776180049284</t>
+          <t>Мельникова Татьяна Владимировна 3812388127628688666</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -6404,7 +6404,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Руденко Константин Герольдович -7779543412567069796</t>
+          <t>Руденко Константин Герольдович 9013761353114497683</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -6474,7 +6474,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Шалимова Юлия Сергеевна -8839079360567143580</t>
+          <t>Шалимова Юлия Сергеевна -5593918730608237713</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -6544,7 +6544,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Бочкарёв Василий Владимирович 7306156352351393798</t>
+          <t>Бочкарёв Василий Владимирович -5666973312432746580</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -6614,7 +6614,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Бочкарёв Василий Владимирович 7306156352351393798</t>
+          <t>Бочкарёв Василий Владимирович -5666973312432746580</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -6684,7 +6684,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Бочкарёв Василий Владимирович 7306156352351393798</t>
+          <t>Бочкарёв Василий Владимирович -5666973312432746580</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -6754,7 +6754,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Медведев Михаил Яковлевич 6001948978037681366</t>
+          <t>Медведев Михаил Яковлевич 2123730839055141106</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -6824,7 +6824,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Хазов Денис Валерьевич -6098878995608917723</t>
+          <t>Хазов Денис Валерьевич 6584303664454576486</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -6894,7 +6894,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Мельникова Татьяна Владимировна 4645602779867919881</t>
+          <t>Мельникова Татьяна Владимировна -2846696109661865843</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -6964,7 +6964,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Мельникова Татьяна Владимировна 5552116962605572780</t>
+          <t>Мельникова Татьяна Владимировна 1933563486966778759</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -7034,7 +7034,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Мельникова Татьяна Владимировна -3707170832880280536</t>
+          <t>Мельникова Татьяна Владимировна -5708738376303422996</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -7104,7 +7104,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Мельникова Татьяна Владимировна -3498024805217350542</t>
+          <t>Мельникова Татьяна Владимировна 8218887602275052771</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -7174,7 +7174,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Крайнова Татьяна Олеговна 1211056856681939722</t>
+          <t>Крайнова Татьяна Олеговна 5778198826845827011</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -7244,7 +7244,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Крайнова Татьяна Олеговна -6381091768421109326</t>
+          <t>Крайнова Татьяна Олеговна -1542226341427861116</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -7314,7 +7314,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Крайнова Татьяна Олеговна -4590397605965663506</t>
+          <t>Крайнова Татьяна Олеговна 1185918393004699682</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Крайнова Татьяна Олеговна -1733579672652244815</t>
+          <t>Крайнова Татьяна Олеговна -3333199702126376167</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -7454,7 +7454,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Орлик Анна Александровна -431179653316302217</t>
+          <t>Орлик Анна Александровна 5882794829316765935</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -7524,7 +7524,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Элоян Александр Николаевич 8805652592350693256</t>
+          <t>Элоян Александр Николаевич 1300476064130715959</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -7594,7 +7594,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Мисакян Азгануш Гарниковна -6283208964923605594</t>
+          <t>Мисакян Азгануш Гарниковна -8966045419564273032</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -7664,7 +7664,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Мисакян Азгануш Гарниковна -5831130373591858376</t>
+          <t>Мисакян Азгануш Гарниковна -1480278269753749357</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -7734,7 +7734,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Мисакян Азгануш Гарниковна -5831130373591858376</t>
+          <t>Мисакян Азгануш Гарниковна -1480278269753749357</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -7804,7 +7804,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Коростелева Алена Сергеевна -932875866819393807</t>
+          <t>Коростелева Алена Сергеевна 8179027666438833927</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -7874,7 +7874,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Элоян Александр Николаевич -8384428868550219155</t>
+          <t>Элоян Александр Николаевич 2959339732929528217</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -7944,7 +7944,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Рыжов Алексей Николаевич 5506418823832949111</t>
+          <t>Рыжов Алексей Николаевич -6771123489907193995</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -8014,7 +8014,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Коростелева Алена Сергеевна 6752371869296495396</t>
+          <t>Коростелева Алена Сергеевна -2158336393799029190</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -8084,7 +8084,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Медведев Михаил Яковлевич 3316657354541455651</t>
+          <t>Медведев Михаил Яковлевич 9195487128753948656</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -8154,7 +8154,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Медведев Михаил Яковлевич 6460718908177864432</t>
+          <t>Медведев Михаил Яковлевич 8140187178844948146</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -8224,7 +8224,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Захарова Марина Сергеевна -2392931861038769653</t>
+          <t>Захарова Марина Сергеевна 4159804213936948717</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -8294,7 +8294,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Тихонов Роман Андреевич 2728451625618301351</t>
+          <t>Тихонов Роман Андреевич -1713959075311545152</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -8364,7 +8364,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Асатрян Завен Араратович -8872792710690059351</t>
+          <t>Асатрян Завен Араратович -1648961173922686200</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -8434,7 +8434,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Асатрян Завен Араратович -3110575583854667077</t>
+          <t>Асатрян Завен Араратович -4201615996169179732</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -8504,7 +8504,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Асатрян Завен Араратович -8872792710690059351</t>
+          <t>Асатрян Завен Араратович -1648961173922686200</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -8574,7 +8574,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Асатрян Завен Араратович -3110575583854667077</t>
+          <t>Асатрян Завен Араратович -4201615996169179732</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -8644,7 +8644,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Асатрян Завен Араратович -8872792710690059351</t>
+          <t>Асатрян Завен Араратович -1648961173922686200</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -8714,7 +8714,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Асатрян Завен Араратович -3110575583854667077</t>
+          <t>Асатрян Завен Араратович -4201615996169179732</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -8784,7 +8784,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Асатрян Завен Араратович -8872792710690059351</t>
+          <t>Асатрян Завен Араратович -1648961173922686200</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -8854,7 +8854,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Асатрян Завен Араратович -3110575583854667077</t>
+          <t>Асатрян Завен Араратович -4201615996169179732</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -8924,7 +8924,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Асатрян Завен Араратович -8872792710690059351</t>
+          <t>Асатрян Завен Араратович -1648961173922686200</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -8994,7 +8994,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Асатрян Завен Араратович -3110575583854667077</t>
+          <t>Асатрян Завен Араратович -4201615996169179732</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Асатрян Завен Араратович -8872792710690059351</t>
+          <t>Асатрян Завен Араратович -1648961173922686200</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -9134,7 +9134,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Асатрян Завен Араратович -3110575583854667077</t>
+          <t>Асатрян Завен Араратович -4201615996169179732</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -9204,7 +9204,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Асатрян Завен Араратович -8872792710690059351</t>
+          <t>Асатрян Завен Араратович -1648961173922686200</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -9274,7 +9274,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Асатрян Завен Араратович -3110575583854667077</t>
+          <t>Асатрян Завен Араратович -4201615996169179732</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -9344,7 +9344,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Асатрян Завен Араратович -8872792710690059351</t>
+          <t>Асатрян Завен Араратович -1648961173922686200</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -9414,7 +9414,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Асатрян Завен Араратович -3110575583854667077</t>
+          <t>Асатрян Завен Араратович -4201615996169179732</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -9484,7 +9484,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Асатрян Завен Араратович -8872792710690059351</t>
+          <t>Асатрян Завен Араратович -1648961173922686200</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -9554,7 +9554,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Асатрян Завен Араратович -3110575583854667077</t>
+          <t>Асатрян Завен Араратович -4201615996169179732</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -9624,7 +9624,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Асатрян Завен Араратович -3110575583854667077</t>
+          <t>Асатрян Завен Араратович -4201615996169179732</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -9694,7 +9694,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Асатрян Завен Араратович -8872792710690059351</t>
+          <t>Асатрян Завен Араратович -1648961173922686200</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -9764,7 +9764,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Асатрян Завен Араратович -8872792710690059351</t>
+          <t>Асатрян Завен Араратович -1648961173922686200</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -9834,7 +9834,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Асатрян Завен Араратович -3110575583854667077</t>
+          <t>Асатрян Завен Араратович -4201615996169179732</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -9904,7 +9904,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Асатрян Завен Араратович 873483487973960396</t>
+          <t>Асатрян Завен Араратович 7669017373397188271</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -9974,7 +9974,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Асатрян Завен Араратович -3110575583854667077</t>
+          <t>Асатрян Завен Араратович -4201615996169179732</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -10044,7 +10044,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Медведева Любовь Ивановна 3465591048538400221</t>
+          <t>Медведева Любовь Ивановна -6068669741929640244</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -10114,7 +10114,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Тихонов Роман Андреевич 5992370736174342659</t>
+          <t>Тихонов Роман Андреевич -1798364779299431314</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -10184,7 +10184,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Типикин Марк Павлович -8723753913239134097</t>
+          <t>Типикин Марк Павлович 8417767676921090760</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -10254,7 +10254,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Вялков Сергей Леонидович 7327467868820665168</t>
+          <t>Вялков Сергей Леонидович -1714580740894580054</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -10324,7 +10324,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Плахутин Павел Геннадьевич 6316218671015728392</t>
+          <t>Плахутин Павел Геннадьевич -391730801465057158</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -10394,7 +10394,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Москвичева Анастасия Александровна 5413819543674706268</t>
+          <t>Москвичева Анастасия Александровна 6107970959091507331</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -10464,7 +10464,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Москвичева Анастасия Александровна -7377320137179428666</t>
+          <t>Москвичева Анастасия Александровна -9132245349723425980</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -10534,7 +10534,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Москвичева Анастасия Александровна -3969023177980595492</t>
+          <t>Москвичева Анастасия Александровна 1653630174143796917</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -10604,7 +10604,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Москвичева Анастасия Александровна 5413819543674706268</t>
+          <t>Москвичева Анастасия Александровна 6107970959091507331</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -10674,7 +10674,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Бочкарёв Василий Владимирович 5489395951268561002</t>
+          <t>Бочкарёв Василий Владимирович -4687716590964686574</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -10740,7 +10740,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Бочкарёв Василий Владимирович -2233171181253626765</t>
+          <t>Бочкарёв Василий Владимирович -5311329454625851398</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -10806,7 +10806,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Бочкарёв Василий Владимирович -2233171181253626765</t>
+          <t>Бочкарёв Василий Владимирович -5311329454625851398</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -10872,7 +10872,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Бочкарёв Василий Владимирович 5489395951268561002</t>
+          <t>Бочкарёв Василий Владимирович -4687716590964686574</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -10938,7 +10938,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Бочкарёв Василий Владимирович -2233171181253626765</t>
+          <t>Бочкарёв Василий Владимирович -5311329454625851398</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -11004,7 +11004,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Бочкарёв Василий Владимирович -2233171181253626765</t>
+          <t>Бочкарёв Василий Владимирович -5311329454625851398</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -11216,7 +11216,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Бабкин (Заседателев) Георгий Даниилович 4163900176904983535</t>
+          <t>Бабкин (Заседателев) Георгий Даниилович -1362363176444096281</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -11286,7 +11286,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Бабкин (Заседателев) Георгий Даниилович 6247072093639484355</t>
+          <t>Бабкин (Заседателев) Георгий Даниилович 1411420299285578374</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -11356,7 +11356,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Смирнова Дарья Анатольевна 6616234156274665774</t>
+          <t>Смирнова Дарья Анатольевна -7796228758722062006</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -11426,7 +11426,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Силуанова Ульяна Антоновна 2241915616668530086</t>
+          <t>Силуанова Ульяна Антоновна 4584747268715501230</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -11496,7 +11496,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Новиков Михаил Павлович -2779503350799760075</t>
+          <t>Новиков Михаил Павлович -4803609707090791469</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -11566,7 +11566,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Борисов Владимир Павлович 8021863741612658354</t>
+          <t>Борисов Владимир Павлович -4977105879541168963</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -11636,7 +11636,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Борисов Владимир Павлович 8021863741612658354</t>
+          <t>Борисов Владимир Павлович -4977105879541168963</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -11706,7 +11706,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Борисов Владимир Павлович 5840177333803365588</t>
+          <t>Борисов Владимир Павлович 7754260104456955498</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -11776,7 +11776,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Смирнова Дарья Анатольевна 2653064922799282480</t>
+          <t>Смирнова Дарья Анатольевна 2423320567968798314</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -11846,7 +11846,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Смирнова Дарья Анатольевна 471378514989989714</t>
+          <t>Смирнова Дарья Анатольевна -3292057521742628841</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -11916,7 +11916,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Тертычный Максим Сергеевич 667459473093062528</t>
+          <t>Тертычный Максим Сергеевич -5008504169218887465</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -11986,7 +11986,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Тертычный Максим Сергеевич -1097756361971972331</t>
+          <t>Тертычный Максим Сергеевич 2772542977530882425</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -12056,7 +12056,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Тертычный Максим Сергеевич 4718583115209578282</t>
+          <t>Тертычный Максим Сергеевич -2940710270683627573</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -12126,7 +12126,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Тертычный Максим Сергеевич -8560256223351087063</t>
+          <t>Тертычный Максим Сергеевич 7722861814779236996</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -12196,7 +12196,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Тертычный Максим Сергеевич 667459473093062528</t>
+          <t>Тертычный Максим Сергеевич -5008504169218887465</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -12412,7 +12412,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Борукаев Артем Владимирович 6720500878863345490</t>
+          <t>Борукаев Артем Владимирович -6262699217276213878</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -12482,7 +12482,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Борукаев Артем Владимирович -6896884881386424663</t>
+          <t>Борукаев Артем Владимирович -4945678510549154851</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -12552,7 +12552,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Борукаев Артем Владимирович -6568679239453194281</t>
+          <t>Борукаев Артем Владимирович 5371302969281826845</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -12622,7 +12622,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Кравцов Василий Юрьевич 1958023160089685325</t>
+          <t>Кравцов Василий Юрьевич -6917840369761235669</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -12692,7 +12692,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Кравцов Василий Юрьевич -7261005217175716700</t>
+          <t>Кравцов Василий Юрьевич -1202462280049808514</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -12762,7 +12762,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Кравцов Василий Юрьевич 7115587115482697170</t>
+          <t>Кравцов Василий Юрьевич -2329867471838051771</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -12832,7 +12832,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Кравцов Василий Юрьевич 7115587115482697170</t>
+          <t>Кравцов Василий Юрьевич -2329867471838051771</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -12902,7 +12902,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Захаряев Эмиль Саломонович 5277268805314036696</t>
+          <t>Захаряев Эмиль Саломонович 6988794782714394524</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -12972,7 +12972,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Наследников Валерий Анатольевич -4780915613087660268</t>
+          <t>Наследников Валерий Анатольевич 235861648585432295</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -13042,7 +13042,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Коростелева Алена Сергеевна 8262899689482313611</t>
+          <t>Коростелева Алена Сергеевна 683929673265333078</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -13112,7 +13112,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Коростелева Алена Сергеевна 2106016289347276634</t>
+          <t>Коростелева Алена Сергеевна -2020619065788392927</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -13182,7 +13182,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Коростелева Алена Сергеевна 5667519277934441650</t>
+          <t>Коростелева Алена Сергеевна 541106387265947225</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -13252,7 +13252,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Рязанова Регина Олеговна 7954659109202126040</t>
+          <t>Рязанова Регина Олеговна 410384796796312965</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -13322,7 +13322,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Янин Юрий Владимирович -3654368860687735236</t>
+          <t>Янин Юрий Владимирович 8422647057619442804</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -13392,7 +13392,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Янин Юрий Владимирович 1086724521961018702</t>
+          <t>Янин Юрий Владимирович 6560224007716286482</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -13462,7 +13462,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Асатрян Завен Араратович 1094452979347050326</t>
+          <t>Асатрян Завен Араратович -8757088298132443331</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -13532,7 +13532,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Асатрян Завен Араратович -1210482926639052561</t>
+          <t>Асатрян Завен Араратович 7827232725673951963</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -13602,7 +13602,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Асатрян Завен Араратович -2806543893444899390</t>
+          <t>Асатрян Завен Араратович -1245044007829748608</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -13672,7 +13672,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Асатрян Завен Араратович -1210482926639052561</t>
+          <t>Асатрян Завен Араратович 7827232725673951963</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -13742,7 +13742,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Дейнеховский Евгений Юрьевич 5509427697306671884</t>
+          <t>Дейнеховский Евгений Юрьевич 7879861002921098183</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -13812,7 +13812,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Дейнеховский Евгений Юрьевич 4746386633412709842</t>
+          <t>Дейнеховский Евгений Юрьевич 5607249642523380538</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -13882,7 +13882,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Кесада Изолина Мигелевна -4657370503260424692</t>
+          <t>Кесада Изолина Мигелевна 4164927135603829665</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -13952,7 +13952,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Кесада Изолина Мигелевна -6422586338325459551</t>
+          <t>Кесада Изолина Мигелевна -6500769791355952061</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -14022,7 +14022,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Максимова Антонина Васильевна -1811816163827681468</t>
+          <t>Максимова Антонина Васильевна -3958007185991410450</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -14092,7 +14092,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Максимова Антонина Васильевна 7415899532616468123</t>
+          <t>Максимова Антонина Васильевна -2640986479264351423</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -14162,7 +14162,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Максимова Антонина Васильевна 7415899532616468123</t>
+          <t>Максимова Антонина Васильевна -2640986479264351423</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -14232,7 +14232,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Максимова Антонина Васильевна 7415899532616468123</t>
+          <t>Максимова Антонина Васильевна -2640986479264351423</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -14302,7 +14302,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Янин Юрий Владимирович -2666566032044885479</t>
+          <t>Янин Юрий Владимирович 336598160896209116</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -14372,7 +14372,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Мельник Оксана Николаевна 906130895568182678</t>
+          <t>Мельник Оксана Николаевна -6032707578581151721</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -14442,7 +14442,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Павлюк Ирина Григорьевна 238389504066485088</t>
+          <t>Павлюк Ирина Григорьевна 6937207314431501211</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -14512,7 +14512,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Гамидова Луиза Шихмагомедовна -8452328287275921541</t>
+          <t>Гамидова Луиза Шихмагомедовна 7663145722541835725</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -14582,7 +14582,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Борукаев Артем Владимирович 8552929515555900383</t>
+          <t>Борукаев Артем Владимирович 5607596040999397123</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -14652,7 +14652,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Борукаев Артем Владимирович -5992817685361701517</t>
+          <t>Борукаев Артем Владимирович 2493909133681070528</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -14722,7 +14722,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Коростелева Алена Сергеевна -4139292565579516814</t>
+          <t>Коростелева Алена Сергеевна -2760445192543788908</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -14792,7 +14792,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Коростелева Алена Сергеевна -3641932055387098402</t>
+          <t>Коростелева Алена Сергеевна 4751599097758905815</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -14862,7 +14862,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Коростелева Алена Сергеевна -2045871088581251573</t>
+          <t>Коростелева Алена Сергеевна -4622868242446945230</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -14932,7 +14932,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Коростелева Алена Сергеевна -3641932055387098402</t>
+          <t>Коростелева Алена Сергеевна 4751599097758905815</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -15002,7 +15002,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Коростелева Алена Сергеевна -2045871088581251573</t>
+          <t>Коростелева Алена Сергеевна -4622868242446945230</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -15072,7 +15072,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Кравцов Василий Юрьевич 228948808195075202</t>
+          <t>Кравцов Василий Юрьевич 6789086818444403308</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -15142,7 +15142,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Кравцов Василий Юрьевич -8661873927137096441</t>
+          <t>Кравцов Василий Юрьевич -7069684357341964410</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -15212,7 +15212,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Кравцов Василий Юрьевич 8188809179766608346</t>
+          <t>Кравцов Василий Юрьевич -9095931802210808156</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -15282,7 +15282,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Кравцов Василий Юрьевич -8990079569070326823</t>
+          <t>Кравцов Василий Юрьевич 5458435619520973638</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Абдурахманов Руслан Антонович -229510969975466915</t>
+          <t>Абдурахманов Руслан Антонович 2992056203662918555</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -15422,7 +15422,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Коростелева Алена Сергеевна -5954441836736352250</t>
+          <t>Коростелева Алена Сергеевна 9099348402236926938</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -15492,7 +15492,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Коростелева Алена Сергеевна 3472040831035112457</t>
+          <t>Коростелева Алена Сергеевна -2878340579572101738</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -15562,7 +15562,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Коростелева Алена Сергеевна -3204145043198753363</t>
+          <t>Коростелева Алена Сергеевна 5263720084325461613</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -15632,7 +15632,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Гамидова Луиза Шихмагомедовна -4210041821941090268</t>
+          <t>Гамидова Луиза Шихмагомедовна 2072735272290639194</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -15702,7 +15702,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Гамидова Луиза Шихмагомедовна -2531830233883231081</t>
+          <t>Гамидова Луиза Шихмагомедовна -8771341091025351634</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -15772,7 +15772,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Гамидова Луиза Шихмагомедовна 5333537831400008800</t>
+          <t>Гамидова Луиза Шихмагомедовна -6224234220382093649</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -15842,7 +15842,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Боровян Наталья Геннадьевна 8091309804628455620</t>
+          <t>Боровян Наталья Геннадьевна -7202643946431952192</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -15912,7 +15912,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Рыжов Александр Алексеевич 5721953560483753154</t>
+          <t>Рыжов Александр Алексеевич -1260658605909831278</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -15982,7 +15982,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Рыжов Александр Алексеевич -7869761708438514251</t>
+          <t>Рыжов Александр Алексеевич -810176878263488202</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -16052,7 +16052,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Рыжов Александр Алексеевич -930878078658132634</t>
+          <t>Рыжов Александр Алексеевич -7130107909409676984</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -16122,7 +16122,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Рыжов Александр Алексеевич 8814694482224043527</t>
+          <t>Рыжов Александр Алексеевич 9041880876042737995</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -16192,7 +16192,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Рыжов Александр Алексеевич -930878078658132634</t>
+          <t>Рыжов Александр Алексеевич -7130107909409676984</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -16262,7 +16262,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Рыжов Александр Алексеевич -561034664257141629</t>
+          <t>Рыжов Александр Алексеевич 1011952754487886367</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -16332,7 +16332,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Рыжов Александр Алексеевич 3009883065471954512</t>
+          <t>Рыжов Александр Алексеевич -7091062566975353342</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -16402,7 +16402,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Рыжов Александр Алексеевич 7487169395548788013</t>
+          <t>Рыжов Александр Алексеевич 5006680938065582320</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -16472,7 +16472,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Борукаев Артем Владимирович 5277026138024474708</t>
+          <t>Борукаев Артем Владимирович -2179304543854994517</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -16542,7 +16542,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Борукаев Артем Владимирович 8720175457889476191</t>
+          <t>Борукаев Артем Владимирович -6928311653792901939</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -16612,7 +16612,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Борукаев Артем Владимирович 3590739250051905222</t>
+          <t>Борукаев Артем Владимирович 3651099417210527547</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -16682,7 +16682,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Рыжов Александр Алексеевич -6032682760460370557</t>
+          <t>Рыжов Александр Алексеевич -2233647074801614003</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -16752,7 +16752,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Рыжов Александр Алексеевич 8513064440457231343</t>
+          <t>Рыжов Александр Алексеевич 7926069121151569417</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -16822,7 +16822,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Рыжов Александр Алексеевич 8513064440457231343</t>
+          <t>Рыжов Александр Алексеевич 7926069121151569417</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -16892,7 +16892,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Рыжов Александр Алексеевич -2939941838720080184</t>
+          <t>Рыжов Александр Алексеевич 8068892407150955270</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -16962,7 +16962,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Рыжов Александр Алексеевич -8744753255472169199</t>
+          <t>Рыжов Александр Алексеевич -8064051035867136067</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -17032,7 +17032,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Митина Александра Сергеевна -6328004484566810552</t>
+          <t>Митина Александра Сергеевна -1337724690548491073</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -17102,7 +17102,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Шибаева Наталья Андреевна -6694627314167801005</t>
+          <t>Шибаева Наталья Андреевна -5063981049265279256</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -17172,7 +17172,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Кондаранцева Алина Александровна -4778788709347156204</t>
+          <t>Кондаранцева Алина Александровна 2561787253220777868</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -17242,7 +17242,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Бланин Александр Алексеевич -1213527850033303931</t>
+          <t>Бланин Александр Алексеевич 7370093807667930383</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -17312,7 +17312,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Бланина Алиса Алексеевна 8217200904202220636</t>
+          <t>Бланина Алиса Алексеевна -6216782538799978302</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -17382,7 +17382,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Рыжов Александр Алексеевич -9150601664613193318</t>
+          <t>Рыжов Александр Алексеевич -8733887894525028870</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -17452,7 +17452,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Рыжов Александр Алексеевич -8653241154420774906</t>
+          <t>Рыжов Александр Алексеевич -1221843604222334147</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -17522,7 +17522,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Рыжов Александр Алексеевич -7464314776640623832</t>
+          <t>Рыжов Александр Алексеевич 1234780312468511985</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -17592,7 +17592,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Рыжов Александр Алексеевич -2477562441613229957</t>
+          <t>Рыжов Александр Алексеевич -1974190397617626207</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -17662,7 +17662,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Севастьянов Андрей Игоревич 8201563210727423584</t>
+          <t>Севастьянов Андрей Игоревич 6263749247595596073</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -17732,7 +17732,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Севастьянов Андрей Игоревич -8479965027917093173</t>
+          <t>Севастьянов Андрей Игоревич -1517297899154173817</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -17802,7 +17802,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Севастьянов Андрей Игоревич -8479965027917093173</t>
+          <t>Севастьянов Андрей Игоревич -1517297899154173817</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -17872,7 +17872,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Севастьянов Андрей Игоревич -8479965027917093173</t>
+          <t>Севастьянов Андрей Игоревич -1517297899154173817</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -17942,7 +17942,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Тамбовцев Сергей Валентинович -990618362694369153</t>
+          <t>Тамбовцев Сергей Валентинович -8606801377703360579</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -18158,7 +18158,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Шепелева Светлана Алексеевна 4908760315129759053</t>
+          <t>Шепелева Светлана Алексеевна -4168473776088459183</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -18228,7 +18228,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Роуз Елена-Летиция Владимировна 4226885523097653704</t>
+          <t>Роуз Елена-Летиция Владимировна 5258108364491001827</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -18298,7 +18298,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Зубарева Наталья Александровна -7559164937162777052</t>
+          <t>Зубарева Наталья Александровна -7159097980388054508</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -18368,7 +18368,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Полетаев Юрий Владимирович 3280556738512121105</t>
+          <t>Полетаев Юрий Владимирович 6070932489729069210</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -18438,7 +18438,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Мельникова Татьяна Владимировна 8093322884097247077</t>
+          <t>Мельникова Татьяна Владимировна -4888169528740060047</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -18508,7 +18508,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Чигиринская Ия Яковлевна 3325799000442971860</t>
+          <t>Чигиринская Ия Яковлевна -2202108821506204859</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -18578,7 +18578,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Чигиринская Ия Яковлевна -5582222114146323199</t>
+          <t>Чигиринская Ия Яковлевна -5177622448980348659</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -18648,7 +18648,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Акульчев Сергей Николаевич 253382061660232818</t>
+          <t>Акульчев Сергей Николаевич -5418104220302427361</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -18718,7 +18718,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Майер Ирина Маратовна 895907377523139619</t>
+          <t>Майер Ирина Маратовна -851654916280796503</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -18788,7 +18788,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Маркина Наталья Владьевна 6234149573315712109</t>
+          <t>Маркина Наталья Владьевна -457293344672500465</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -18858,7 +18858,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Григорян Дарья Андреевна 1781966961224234324</t>
+          <t>Григорян Дарья Андреевна 6142328386967106892</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -18928,7 +18928,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Боровян Наталья Геннадьевна 2042756381844953371</t>
+          <t>Боровян Наталья Геннадьевна 123162233859920204</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -18998,7 +18998,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Сбытова Ирина Александровна -3078014305405244681</t>
+          <t>Сбытова Ирина Александровна -4253853988989003249</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -19068,7 +19068,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Семенихина Екатерина Евгеньевна -2948263932446045364</t>
+          <t>Семенихина Екатерина Евгеньевна -489762625706222736</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -19138,7 +19138,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Григорян Дарья Андреевна 7112632558143175469</t>
+          <t>Григорян Дарья Андреевна 7445643245568158100</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -19208,7 +19208,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Тамбовцева Анна Леонидовна 8346183268925174253</t>
+          <t>Тамбовцева Анна Леонидовна 7777338391810539422</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -19278,7 +19278,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Сусанян Радик Шотаевич 3039807894634796398</t>
+          <t>Сусанян Радик Шотаевич -7624627871490618418</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -19348,7 +19348,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Сусанян Радик Шотаевич -6828046944226506274</t>
+          <t>Сусанян Радик Шотаевич -1499453803250857792</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -19418,7 +19418,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Хихинашвили Лимор Теймуразовна -741779758579956494</t>
+          <t>Хихинашвили Лимор Теймуразовна -6267718199787513138</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -19488,7 +19488,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Абдурахманов Руслан Антонович -297904889205835444</t>
+          <t>Абдурахманов Руслан Антонович 6927156589868285971</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -19558,7 +19558,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Глебов Владимир Владимирович -5809867279321201480</t>
+          <t>Глебов Владимир Владимирович -4241026073727522429</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -19774,7 +19774,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Земченко Александр -6297855327023074456</t>
+          <t>Земченко Александр -3184067149288869127</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -19844,7 +19844,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Привалов Тигран Араевич -5406260763757425364</t>
+          <t>Привалов Тигран Араевич 2856674415237262803</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -19914,7 +19914,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Берлина Марина Александровна 3465617752796253323</t>
+          <t>Берлина Марина Александровна -5000515310341482033</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -19984,7 +19984,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Андреева Татьяна Викторовна 7570579589225764729</t>
+          <t>Андреева Татьяна Викторовна 7645038471142198941</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -20054,7 +20054,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Зубарева Наталья Александровна -3929154657157217409</t>
+          <t>Зубарева Наталья Александровна -3857816314784333148</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -20124,7 +20124,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Зубарева Наталья Александровна -8203606992640941658</t>
+          <t>Зубарева Наталья Александровна 3649518445179276420</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -20194,7 +20194,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Зубарева Наталья Александровна 9037133633627567479</t>
+          <t>Зубарева Наталья Александровна -3277084967723550068</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -20264,7 +20264,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Максимова Антонина Васильевна 8181926242421451381</t>
+          <t>Максимова Антонина Васильевна -6373676200992105896</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -20334,7 +20334,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Вознесенская Анна Сергеевна 4742825933970226678</t>
+          <t>Вознесенская Анна Сергеевна -4441096777011697202</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -20404,7 +20404,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Шалимова Юлия Сергеевна 1871708549337257936</t>
+          <t>Шалимова Юлия Сергеевна 4251441033146019070</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -20474,7 +20474,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Шалимова Юлия Сергеевна 1871708549337257936</t>
+          <t>Шалимова Юлия Сергеевна 4251441033146019070</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -20544,7 +20544,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Шалимова Юлия Сергеевна 1871708549337257936</t>
+          <t>Шалимова Юлия Сергеевна 4251441033146019070</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -20614,7 +20614,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Шалимова Юлия Сергеевна 1871708549337257936</t>
+          <t>Шалимова Юлия Сергеевна 4251441033146019070</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -20684,7 +20684,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Рыжов Александр Алексеевич 2912540490097647856</t>
+          <t>Рыжов Александр Алексеевич -8583901478954481493</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -20754,7 +20754,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Рыжов Алексей Николаевич -6862472777166810526</t>
+          <t>Рыжов Алексей Николаевич -2476900287282358383</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -20824,7 +20824,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Коленченко Екатерина Валентиновна 6673906924842588828</t>
+          <t>Коленченко Екатерина Валентиновна -5022667218334626612</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -20894,7 +20894,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Курышев Владимир Васильевич 3185731258788359391</t>
+          <t>Курышев Владимир Васильевич -4364981757656684512</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -20964,7 +20964,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Борукаев Артем Владимирович -2978144390989701073</t>
+          <t>Борукаев Артем Владимирович -8618022876312868260</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -21034,7 +21034,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Борукаев Артем Владимирович 3132115762104604063</t>
+          <t>Борукаев Артем Владимирович 8488532915633163125</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -21104,7 +21104,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Борукаев Артем Владимирович -769851972893843981</t>
+          <t>Борукаев Артем Владимирович -8365839202334900304</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -21320,7 +21320,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Алафинова Александра Иннокентьевна -4625903603801634367</t>
+          <t>Алафинова Александра Иннокентьевна 2722605797733451880</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -21390,7 +21390,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Алафинова Александра Иннокентьевна -4488718176885869255</t>
+          <t>Алафинова Александра Иннокентьевна -1070424616866246880</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -21460,7 +21460,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Ридник Виктория Александровна -8077182492985741369</t>
+          <t>Ридник Виктория Александровна 1801750581426959693</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -21530,7 +21530,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Губенко Анастасия Александровна -1786521359840979543</t>
+          <t>Губенко Анастасия Александровна -4558744473473904775</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -21600,7 +21600,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Борукаев Артем Владимирович 1737883619269498931</t>
+          <t>Борукаев Артем Владимирович 5300151530929757312</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -21816,7 +21816,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Сбытов Роман Сергеевич 5491077206357698118</t>
+          <t>Сбытов Роман Сергеевич -3292964092166005542</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -21886,7 +21886,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Погребняк Григорий Олегович -2942500715785133965</t>
+          <t>Погребняк Григорий Олегович -5931572343225862916</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -21956,7 +21956,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Снигирь Юлия Викторовна -7058844245988231906</t>
+          <t>Снигирь Юлия Викторовна -5637645244799507246</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -22026,7 +22026,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Боровян Наталья Геннадьевна 5443367252224016772</t>
+          <t>Боровян Наталья Геннадьевна 803771261255326193</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -22096,7 +22096,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Боровян Наталья Геннадьевна 5443367252224016772</t>
+          <t>Боровян Наталья Геннадьевна 803771261255326193</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -22166,7 +22166,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Боровян Наталья Геннадьевна 5443367252224016772</t>
+          <t>Боровян Наталья Геннадьевна 803771261255326193</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -22236,7 +22236,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Боровян Наталья Геннадьевна 5443367252224016772</t>
+          <t>Боровян Наталья Геннадьевна 803771261255326193</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -22306,7 +22306,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Боровян Наталья Геннадьевна 5443367252224016772</t>
+          <t>Боровян Наталья Геннадьевна 803771261255326193</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -22376,7 +22376,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Боровян Наталья Геннадьевна 5443367252224016772</t>
+          <t>Боровян Наталья Геннадьевна 803771261255326193</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -22446,7 +22446,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Боровян Наталья Геннадьевна 5443367252224016772</t>
+          <t>Боровян Наталья Геннадьевна 803771261255326193</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -22516,7 +22516,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Боровян Наталья Геннадьевна 5443367252224016772</t>
+          <t>Боровян Наталья Геннадьевна 803771261255326193</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -22586,7 +22586,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Боровян Наталья Геннадьевна 5443367252224016772</t>
+          <t>Боровян Наталья Геннадьевна 803771261255326193</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -22656,7 +22656,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Боровян Наталья Геннадьевна 5443367252224016772</t>
+          <t>Боровян Наталья Геннадьевна 803771261255326193</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -22726,7 +22726,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Боровян Наталья Геннадьевна 5443367252224016772</t>
+          <t>Боровян Наталья Геннадьевна 803771261255326193</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -22796,7 +22796,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Боровян Наталья Геннадьевна 5443367252224016772</t>
+          <t>Боровян Наталья Геннадьевна 803771261255326193</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -22866,7 +22866,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Боровян Наталья Геннадьевна 5443367252224016772</t>
+          <t>Боровян Наталья Геннадьевна 803771261255326193</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -22936,7 +22936,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Боровян Наталья Геннадьевна 5443367252224016772</t>
+          <t>Боровян Наталья Геннадьевна 803771261255326193</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -23006,7 +23006,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Боровян Наталья Геннадьевна 5443367252224016772</t>
+          <t>Боровян Наталья Геннадьевна 803771261255326193</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -23076,7 +23076,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Боровян Наталья Геннадьевна 5443367252224016772</t>
+          <t>Боровян Наталья Геннадьевна 803771261255326193</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -23146,7 +23146,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Боровян Наталья Геннадьевна 5443367252224016772</t>
+          <t>Боровян Наталья Геннадьевна 803771261255326193</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -23216,7 +23216,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Боровян Наталья Геннадьевна 5443367252224016772</t>
+          <t>Боровян Наталья Геннадьевна 803771261255326193</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -23286,7 +23286,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Боровян Наталья Геннадьевна 5443367252224016772</t>
+          <t>Боровян Наталья Геннадьевна 803771261255326193</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -23356,7 +23356,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Боровян Наталья Геннадьевна 5443367252224016772</t>
+          <t>Боровян Наталья Геннадьевна 803771261255326193</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -23426,7 +23426,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Боровян Наталья Геннадьевна 5443367252224016772</t>
+          <t>Боровян Наталья Геннадьевна 803771261255326193</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -23496,7 +23496,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Боровян Наталья Геннадьевна 5443367252224016772</t>
+          <t>Боровян Наталья Геннадьевна 803771261255326193</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -23566,7 +23566,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Боровян Наталья Геннадьевна 5443367252224016772</t>
+          <t>Боровян Наталья Геннадьевна 803771261255326193</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -23636,7 +23636,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Боровян Наталья Геннадьевна 5443367252224016772</t>
+          <t>Боровян Наталья Геннадьевна 803771261255326193</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -23706,7 +23706,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Боровян Наталья Геннадьевна 5443367252224016772</t>
+          <t>Боровян Наталья Геннадьевна 803771261255326193</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -23776,7 +23776,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Боровян Наталья Геннадьевна 5443367252224016772</t>
+          <t>Боровян Наталья Геннадьевна 803771261255326193</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -23846,7 +23846,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Боровян Наталья Геннадьевна 5443367252224016772</t>
+          <t>Боровян Наталья Геннадьевна 803771261255326193</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -23916,7 +23916,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Боровян Наталья Геннадьевна 5443367252224016772</t>
+          <t>Боровян Наталья Геннадьевна 803771261255326193</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -23986,7 +23986,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Любешкина Татьяна Алексеевна 1333619270721098636</t>
+          <t>Любешкина Татьяна Алексеевна -971472195530514115</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -24056,7 +24056,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Семенихина Екатерина Евгеньевна -3529769637991554301</t>
+          <t>Семенихина Екатерина Евгеньевна -1562488595460351391</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -24126,7 +24126,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Григоренко Ольга Михайловна -4129063846027153905</t>
+          <t>Григоренко Ольга Михайловна 1245820711068940849</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -24196,7 +24196,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Зубарева Наталья Александровна 9216660192462680662</t>
+          <t>Зубарева Наталья Александровна 7642721136566487627</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -24266,7 +24266,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Сбытов Роман Сергеевич -2862217646465090582</t>
+          <t>Сбытов Роман Сергеевич 6043562809632654313</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -24336,7 +24336,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Сбытов Роман Сергеевич -2862217646465090582</t>
+          <t>Сбытов Роман Сергеевич 6043562809632654313</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -24406,7 +24406,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Сбытов Роман Сергеевич -2862217646465090582</t>
+          <t>Сбытов Роман Сергеевич 6043562809632654313</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -24476,7 +24476,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Погребняк София Сергеевна -1611244387624222160</t>
+          <t>Погребняк София Сергеевна -861412805947166557</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -24546,7 +24546,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Погребняк София Сергеевна 6768315672344470622</t>
+          <t>Погребняк София Сергеевна 1697876068978880595</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -24616,7 +24616,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Зимина Елена Владимировна -6869232816068099121</t>
+          <t>Зимина Елена Владимировна 8646727448097403480</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -24686,7 +24686,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Кондаранцева Алина Александровна -965609416461252012</t>
+          <t>Кондаранцева Алина Александровна -7088295827328449277</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -24902,7 +24902,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Карагезова Диана Васильевна -97236505047144437</t>
+          <t>Карагезова Диана Васильевна -6371221535801024549</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -24972,7 +24972,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Обухова Камилла Исламбековна 4562989379905079100</t>
+          <t>Обухова Камилла Исламбековна -4307521486145636131</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -25042,7 +25042,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Обухова Камилла Исламбековна -6438851178396525737</t>
+          <t>Обухова Камилла Исламбековна -5778294813523255060</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -25112,7 +25112,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Обухова Камилла Исламбековна 4562989379905079100</t>
+          <t>Обухова Камилла Исламбековна -4307521486145636131</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -25182,7 +25182,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Обухова Камилла Исламбековна 6191553418131475266</t>
+          <t>Обухова Камилла Исламбековна -65041565308745062</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -25252,7 +25252,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Данилов Алексей Михайлович -315148529564343353</t>
+          <t>Данилов Алексей Михайлович -1036313488746266792</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -25322,7 +25322,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Данилов Алексей Михайлович -315148529564343353</t>
+          <t>Данилов Алексей Михайлович -1036313488746266792</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -25392,7 +25392,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Данилов Алексей Михайлович -3273722005917773624</t>
+          <t>Данилов Алексей Михайлович -1703527619412859081</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -25462,7 +25462,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Данилов Алексей Михайлович -7664739672522522390</t>
+          <t>Данилов Алексей Михайлович 5429837792773361228</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -25532,7 +25532,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Данилов Алексей Михайлович -2496834937373636119</t>
+          <t>Данилов Алексей Михайлович -6751691578457693947</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -25602,7 +25602,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Данилов Алексей Михайлович 7350465676313033311</t>
+          <t>Данилов Алексей Михайлович -684193045913497744</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -25672,7 +25672,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Данилов Алексей Михайлович -2496834937373636119</t>
+          <t>Данилов Алексей Михайлович -6751691578457693947</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -25742,7 +25742,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Данилов Алексей Михайлович -3273722005917773624</t>
+          <t>Данилов Алексей Михайлович -1703527619412859081</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -25812,7 +25812,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Каминскас Степан Адолфасович -1843617544862269022</t>
+          <t>Каминскас Степан Адолфасович 5667726247353995972</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -25882,7 +25882,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Каминскас Степан Адолфасович -1758853050065177140</t>
+          <t>Каминскас Степан Адолфасович -3859489974280788739</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -25952,7 +25952,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Каминскас Степан Адолфасович 3408690046367494594</t>
+          <t>Каминскас Степан Адолфасович -3820576281136314289</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -26022,7 +26022,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Каминскас Степан Адолфасович -3564873180696619461</t>
+          <t>Каминскас Степан Адолфасович -2724524997055070409</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -26092,7 +26092,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Павлоцкий Лев Ефимович 2823751621617261630</t>
+          <t>Павлоцкий Лев Ефимович -6734636621610659546</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -26162,7 +26162,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Карагезов Владислав Васильевич -591748605302825319</t>
+          <t>Карагезов Владислав Васильевич 139135046675272481</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -26232,7 +26232,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Карагезов Владислав Васильевич -1134609668808603115</t>
+          <t>Карагезов Владислав Васильевич 1090887562719695817</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -26302,7 +26302,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Карагезов Владислав Васильевич 4830422474262825707</t>
+          <t>Карагезов Владислав Васильевич -2086525112416651013</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -26372,7 +26372,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Карагезов Владислав Васильевич -7482026040595709335</t>
+          <t>Карагезов Владислав Васильевич -6894977045892531826</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -26442,7 +26442,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Карагезов Владислав Васильевич 3813122411791892098</t>
+          <t>Карагезов Владислав Васильевич 7189487340162591994</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -26512,7 +26512,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Карагезов Владислав Васильевич -5575810355252728301</t>
+          <t>Карагезов Владислав Васильевич 8818685693812625698</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -26582,7 +26582,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Карагезов Владислав Васильевич 5148378555932291668</t>
+          <t>Карагезов Владислав Васильевич 1465948107972466869</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -26652,7 +26652,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Карагезов Владислав Васильевич -3526214770928961323</t>
+          <t>Карагезов Владислав Васильевич -5424203718514912897</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -26722,7 +26722,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Сдобников Иван Сергеевич 7607886632327737538</t>
+          <t>Сдобников Иван Сергеевич 5120477020092212519</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -26792,7 +26792,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Сдобников Иван Сергеевич 8287841575719866038</t>
+          <t>Сдобников Иван Сергеевич 2733203252612734953</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -26862,7 +26862,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Сдобников Иван Сергеевич 5972656109469998730</t>
+          <t>Сдобников Иван Сергеевич -1495370673747917055</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -26932,7 +26932,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Сдобников Иван Сергеевич 4207440274404963871</t>
+          <t>Сдобников Иван Сергеевич 6285676473001852835</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -27002,7 +27002,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Сдобников Иван Сергеевич 5972656109469998730</t>
+          <t>Сдобников Иван Сергеевич -1495370673747917055</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -27072,7 +27072,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Сдобников Иван Сергеевич -68795669471920992</t>
+          <t>Сдобников Иван Сергеевич 2043196552164961766</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -27142,7 +27142,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Сдобников Иван Сергеевич 4207440274404963871</t>
+          <t>Сдобников Иван Сергеевич 6285676473001852835</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -27212,7 +27212,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Сдобников Иван Сергеевич 5638097871144267102</t>
+          <t>Сдобников Иван Сергеевич -2098770602264564169</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -27282,7 +27282,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Сдобников Иван Сергеевич 4207440274404963871</t>
+          <t>Сдобников Иван Сергеевич 6285676473001852835</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -27352,7 +27352,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Котляренко Ангелина Сергеевна 282507720190559142</t>
+          <t>Котляренко Ангелина Сергеевна 8226462911738636993</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -27422,7 +27422,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Котляренко Ангелина Сергеевна 6247539863261987964</t>
+          <t>Котляренко Ангелина Сергеевна -1996979052032566662</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -27492,7 +27492,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Котляренко Ангелина Сергеевна -6064908651596547078</t>
+          <t>Котляренко Ангелина Сергеевна -6805430985508447475</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -27562,7 +27562,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Котляренко Ангелина Сергеевна -7403589250070664754</t>
+          <t>Котляренко Ангелина Сергеевна 7092875369828052518</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -27632,7 +27632,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Котляренко Ангелина Сергеевна -4158692966253566044</t>
+          <t>Котляренко Ангелина Сергеевна 8908231754196710049</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -27702,7 +27702,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Котляренко Ангелина Сергеевна -897003916447660807</t>
+          <t>Котляренко Ангелина Сергеевна 6505813005604905791</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -27772,7 +27772,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Карпов Александр Павлович 6908459828515760369</t>
+          <t>Карпов Александр Павлович -451281890804172723</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -27842,7 +27842,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Карпов Александр Павлович 6908459828515760369</t>
+          <t>Карпов Александр Павлович -451281890804172723</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -27912,7 +27912,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Карпов Александр Павлович 8219067785072690574</t>
+          <t>Карпов Александр Павлович 238724809643600464</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -27982,7 +27982,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Воробьева Мария Андреевна -1348842746621233252</t>
+          <t>Воробьева Мария Андреевна -5543914080960122391</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -28052,7 +28052,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Карпов Александр Павлович 7769780764208214801</t>
+          <t>Карпов Александр Павлович 3700378057385999563</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -28122,7 +28122,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Карпов Александр Павлович -2320326064309549785</t>
+          <t>Карпов Александр Павлович 4390384757833772750</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -28192,7 +28192,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Карпов Александр Павлович 7769780764208214801</t>
+          <t>Карпов Александр Павлович 3700378057385999563</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -28262,7 +28262,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Обухова Камилла Исламбековна 5666578108323596403</t>
+          <t>Обухова Камилла Исламбековна -4366830829169115148</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -28332,7 +28332,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Обухова Камилла Исламбековна 6346533051715724903</t>
+          <t>Обухова Камилла Исламбековна -6754104596648592714</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -28402,7 +28402,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Котляренко Ангелина Сергеевна -8402750259733326323</t>
+          <t>Котляренко Ангелина Сергеевна 6188986447637908308</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -28472,7 +28472,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Карпов Александр Павлович -9065413250525846483</t>
+          <t>Карпов Александр Павлович 1544289513447319380</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -28542,7 +28542,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Нетаев Адам Ахмедович 8800201177968364233</t>
+          <t>Нетаев Адам Ахмедович 1564853413033834800</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -28612,7 +28612,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Нетаев Адам Ахмедович 3108451732434967775</t>
+          <t>Нетаев Адам Ахмедович -9145854671593086804</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -28682,7 +28682,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Нетаев Адам Ахмедович -8017978857514791217</t>
+          <t>Нетаев Адам Ахмедович 5807333333870725869</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -28752,7 +28752,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Нетаев Адам Ахмедович 8800201177968364233</t>
+          <t>Нетаев Адам Ахмедович 1564853413033834800</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -28822,7 +28822,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Елизаров Яков Ильич 7037807133430926292</t>
+          <t>Елизаров Яков Ильич 1916443025758150854</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -28892,7 +28892,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Котун Алиса Константиновна 715937126934615800</t>
+          <t>Котун Алиса Константиновна 5828882409643464202</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -28962,7 +28962,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Гершберг Георгий Константинович -3044385155228325024</t>
+          <t>Гершберг Георгий Константинович -7999417449438762458</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -29032,7 +29032,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Гершберг Георгий Константинович 5383832358131205452</t>
+          <t>Гершберг Георгий Константинович -2586854082170397694</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
